--- a/currentbuild/StructureDefinition-helsenim-condition.xlsx
+++ b/currentbuild/StructureDefinition-helsenim-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Helse-NIM Tilstand (condition)</t>
+    <t>Helse-NIM Tilstand (condition)-TEST</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T12:25:14+00:00</t>
+    <t>2025-03-17T13:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Den logiske modellen for Helse-NIM for Tilstander</t>
+    <t>En test av Logiske modellen for Helse-NIM for Tilstander</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -263,13 +263,16 @@
 </t>
   </si>
   <si>
+    <t>no-problem-info| no-known-problems</t>
+  </si>
+  <si>
+    <t>Absent or Unknown Problems - IPS</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>https://hl7.org/fhir/uv/ips/STU1.1/ValueSet-absent-or-unknown-problems-uv-ips.html</t>
-  </si>
-  <si>
-    <t>Absent or Unknown Problems - IPS</t>
-  </si>
-  <si>
-    <t>preferred</t>
   </si>
   <si>
     <t>helsenim-condition.kategori</t>
@@ -916,7 +919,7 @@
         <v>83</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>73</v>
@@ -951,10 +954,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -980,10 +983,10 @@
         <v>81</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1013,28 +1016,28 @@
         <v>84</v>
       </c>
       <c r="Y4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="Z4" t="s" s="2">
+      <c r="AA4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1051,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1077,13 +1080,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1134,7 +1137,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>

--- a/currentbuild/StructureDefinition-helsenim-condition.xlsx
+++ b/currentbuild/StructureDefinition-helsenim-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:10:41+00:00</t>
+    <t>2025-03-24T14:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-helsenim-condition.xlsx
+++ b/currentbuild/StructureDefinition-helsenim-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T14:09:32+00:00</t>
+    <t>2025-04-01T08:20:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-helsenim-condition.xlsx
+++ b/currentbuild/StructureDefinition-helsenim-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-01T08:20:48+00:00</t>
+    <t>2025-04-01T08:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
